--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H2">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I2">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J2">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.459412</v>
+        <v>0.4333629999999999</v>
       </c>
       <c r="N2">
-        <v>0.918824</v>
+        <v>0.8667259999999999</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>91.933443889084</v>
+        <v>102.309326407729</v>
       </c>
       <c r="R2">
-        <v>367.733775556336</v>
+        <v>409.237305630916</v>
       </c>
       <c r="S2">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="T2">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>352.655433</v>
       </c>
       <c r="I3">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J3">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.459412</v>
+        <v>0.4333629999999999</v>
       </c>
       <c r="N3">
-        <v>0.918824</v>
+        <v>0.8667259999999999</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>54.004712595132</v>
+        <v>50.94260547039299</v>
       </c>
       <c r="R3">
-        <v>324.028275570792</v>
+        <v>305.655632822358</v>
       </c>
       <c r="S3">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="T3">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H4">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I4">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J4">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.459412</v>
+        <v>0.4333629999999999</v>
       </c>
       <c r="N4">
-        <v>0.918824</v>
+        <v>0.8667259999999999</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>37.94269573424133</v>
+        <v>28.42046875359533</v>
       </c>
       <c r="R4">
-        <v>227.656174405448</v>
+        <v>170.522812521572</v>
       </c>
       <c r="S4">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="T4">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H5">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I5">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J5">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,10 +747,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.459412</v>
+        <v>0.4333629999999999</v>
       </c>
       <c r="N5">
-        <v>0.918824</v>
+        <v>0.8667259999999999</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>119.81016803594</v>
+        <v>59.72432638936049</v>
       </c>
       <c r="R5">
-        <v>479.2406721437599</v>
+        <v>238.897305557442</v>
       </c>
       <c r="S5">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="T5">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H6">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I6">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J6">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.459412</v>
+        <v>0.4333629999999999</v>
       </c>
       <c r="N6">
-        <v>0.918824</v>
+        <v>0.8667259999999999</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>56.26586020595467</v>
+        <v>17.23925280052967</v>
       </c>
       <c r="R6">
-        <v>337.595161235728</v>
+        <v>103.435516803178</v>
       </c>
       <c r="S6">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="T6">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H7">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I7">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J7">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.459412</v>
+        <v>0.4333629999999999</v>
       </c>
       <c r="N7">
-        <v>0.918824</v>
+        <v>0.8667259999999999</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>47.82604676378133</v>
+        <v>28.714111477674</v>
       </c>
       <c r="R7">
-        <v>286.956280582688</v>
+        <v>172.284668866044</v>
       </c>
       <c r="S7">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="T7">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
     </row>
   </sheetData>
